--- a/public/archivos-testing/casos de prueba.xlsx
+++ b/public/archivos-testing/casos de prueba.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template - CP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>El input debe validar que se está insertando un formato válido, sino no debo poder avanzar</t>
-  </si>
-  <si>
-    <t>Ingresar al path "/login" o "/create-account"</t>
   </si>
   <si>
     <t>Solamente tengo que poder avanzar si el formato de email es correcto.</t>
@@ -409,12 +406,123 @@
   <si>
     <t>Se elimine la tarjeta.</t>
   </si>
+  <si>
+    <t>Debo poder ingresar dinero de una tarjeta a mi cuenta.</t>
+  </si>
+  <si>
+    <t>Añadir una tarjeta.</t>
+  </si>
+  <si>
+    <t>Clickear en "Cargar dinero".</t>
+  </si>
+  <si>
+    <t>Clickear en "Seleccionar tarjeta".</t>
+  </si>
+  <si>
+    <t>Que me redirija a cargar dinero.</t>
+  </si>
+  <si>
+    <t>Que me redirija a elegir una tarjeta.</t>
+  </si>
+  <si>
+    <t>Añadir el monto.</t>
+  </si>
+  <si>
+    <t>Que se ingrese correctamente el monto.</t>
+  </si>
+  <si>
+    <t>Ingreso de dinero con tarjeta.</t>
+  </si>
+  <si>
+    <t>Ingreso de dinero desde cuenta externa.</t>
+  </si>
+  <si>
+    <t>Debo poder copiar el cvu o el alias para ingresar dinero desde una cuenta externa.</t>
+  </si>
+  <si>
+    <t>Iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Estar logueado.</t>
+  </si>
+  <si>
+    <t>Ingresar al path "/create-account".</t>
+  </si>
+  <si>
+    <t>Ingresar al path "/login".</t>
+  </si>
+  <si>
+    <t>Ingresar al path "/login" o "/create-account".</t>
+  </si>
+  <si>
+    <t>Clickear en "Transferencia bancaria".</t>
+  </si>
+  <si>
+    <t>Que me redirija a "/bank-transfer".</t>
+  </si>
+  <si>
+    <t>Tengo que poder editar el alias.</t>
+  </si>
+  <si>
+    <t>Que me redirija a "/bank-transfer" y pueda copiar el cvu y/o el alias.</t>
+  </si>
+  <si>
+    <t>Debo poder editar el alias para ingresar dinero desde una cuenta externa.</t>
+  </si>
+  <si>
+    <t>Clickear en el icono para editar.</t>
+  </si>
+  <si>
+    <t>Que se edite correctamente.</t>
+  </si>
+  <si>
+    <t>Filtro de mi actividad.</t>
+  </si>
+  <si>
+    <t>Debo poder filtrar mi actividad por fecha (hoy, ayer, última semana, etc).</t>
+  </si>
+  <si>
+    <t>Clickear en "Actividad".</t>
+  </si>
+  <si>
+    <t>Que me redirija a mi actividad.</t>
+  </si>
+  <si>
+    <t>Clickear en "Filtrar" y agregar el que desee.</t>
+  </si>
+  <si>
+    <t>Ver correctamente la información.</t>
+  </si>
+  <si>
+    <t>Que funcione correctamente.</t>
+  </si>
+  <si>
+    <t>Que se vea bien la información.</t>
+  </si>
+  <si>
+    <t>Debo poder ver mi actividad.</t>
+  </si>
+  <si>
+    <t>Página mi actividad.</t>
+  </si>
+  <si>
+    <t>Detalle de las transacciones.</t>
+  </si>
+  <si>
+    <t>Debo poder ver el detalle de cada transacción.</t>
+  </si>
+  <si>
+    <t>Clickear la transacción de la cual quiero ver el detalle.</t>
+  </si>
+  <si>
+    <t>Que me redirija a "/detail-activity"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -425,21 +533,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,17 +559,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -575,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,11 +733,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,127 +766,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="170">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1036,6 +1036,438 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1912,8 +2344,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:D83"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1955,30 +2387,30 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1"/>
@@ -1999,10 +2431,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2012,9 +2444,9 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2033,34 +2465,34 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>27</v>
+      <c r="D4" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="1"/>
@@ -2081,18 +2513,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2111,18 +2543,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2141,18 +2573,18 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2171,34 +2603,34 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>27</v>
+      <c r="D8" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="1"/>
@@ -2219,18 +2651,18 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2249,18 +2681,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2279,18 +2711,18 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2309,34 +2741,34 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>30</v>
+      <c r="D12" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="1"/>
@@ -2357,22 +2789,22 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2391,18 +2823,18 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2421,18 +2853,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2451,34 +2883,34 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>30</v>
+      <c r="B16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="1"/>
@@ -2498,53 +2930,53 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="19" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+    <row r="17" spans="1:26" s="16" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2563,18 +2995,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2593,34 +3025,34 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>5</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>41</v>
+      <c r="B20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="1"/>
@@ -2641,22 +3073,22 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2675,18 +3107,18 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2705,18 +3137,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2735,34 +3167,34 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>6</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>41</v>
+      <c r="D24" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="1"/>
@@ -2783,22 +3215,22 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2817,18 +3249,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2847,18 +3279,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2877,34 +3309,34 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22">
+      <c r="A28" s="20">
         <v>7</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>50</v>
+      <c r="B28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K28" s="1"/>
@@ -2925,22 +3357,22 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2959,22 +3391,22 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2993,18 +3425,18 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3023,34 +3455,34 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+      <c r="A32" s="20">
         <v>8</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>41</v>
+      <c r="C32" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="1"/>
@@ -3071,22 +3503,22 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3105,22 +3537,22 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3139,22 +3571,22 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3173,35 +3605,35 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22">
+      <c r="A36" s="20">
         <v>9</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>41</v>
+      <c r="D36" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="22" t="s">
-        <v>62</v>
+      <c r="J36" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3221,22 +3653,22 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3255,22 +3687,22 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3289,22 +3721,22 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3323,35 +3755,35 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>10</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>50</v>
+      <c r="D40" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>62</v>
+      <c r="J40" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3371,22 +3803,22 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3405,22 +3837,22 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -3439,18 +3871,18 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3469,35 +3901,35 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22">
+      <c r="A44" s="20">
         <v>11</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>71</v>
+      <c r="B44" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="22" t="s">
-        <v>62</v>
+      <c r="J44" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3517,18 +3949,18 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3547,18 +3979,18 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3577,18 +4009,18 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -3607,35 +4039,35 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22">
+      <c r="A48" s="20">
         <v>12</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>27</v>
+      <c r="B48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="22" t="s">
+      <c r="I48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="22" t="s">
-        <v>62</v>
+      <c r="J48" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3655,22 +4087,22 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3689,18 +4121,18 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3719,18 +4151,18 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3749,34 +4181,34 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
+      <c r="A52" s="20">
         <v>13</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>27</v>
+      <c r="D52" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="1"/>
@@ -3797,22 +4229,22 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3831,22 +4263,22 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3865,18 +4297,18 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3895,34 +4327,34 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
+      <c r="A56" s="20">
         <v>14</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>67</v>
+      <c r="D56" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K56" s="1"/>
@@ -3943,22 +4375,22 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3977,18 +4409,18 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4007,18 +4439,18 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -4037,34 +4469,34 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>15</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>67</v>
+      <c r="B60" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K60" s="1"/>
@@ -4085,22 +4517,22 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
       <c r="E61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4119,22 +4551,22 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -4153,18 +4585,18 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4183,34 +4615,34 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>16</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>67</v>
+      <c r="D64" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="22" t="s">
+      <c r="I64" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K64" s="1"/>
@@ -4231,22 +4663,22 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4265,22 +4697,22 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -4299,18 +4731,18 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4329,34 +4761,34 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22">
+      <c r="A68" s="20">
         <v>17</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>67</v>
+      <c r="D68" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="22" t="s">
+      <c r="I68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K68" s="1"/>
@@ -4377,22 +4809,22 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4411,22 +4843,22 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -4445,18 +4877,18 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4475,34 +4907,34 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22">
+      <c r="A72" s="20">
         <v>18</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>67</v>
+      <c r="D72" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="I72" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K72" s="1"/>
@@ -4523,22 +4955,22 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
       <c r="E73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -4557,22 +4989,22 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
       <c r="E74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -4591,18 +5023,18 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -4621,34 +5053,34 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22">
+      <c r="A76" s="20">
         <v>19</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>67</v>
+      <c r="D76" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I76" s="22" t="s">
+      <c r="I76" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K76" s="1"/>
@@ -4669,22 +5101,22 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -4703,22 +5135,22 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -4737,20 +5169,20 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G79" s="7"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -4769,34 +5201,34 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22">
+      <c r="A80" s="20">
         <v>20</v>
       </c>
-      <c r="B80" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>67</v>
+      <c r="B80" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H80" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I80" s="22" t="s">
+      <c r="I80" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="22" t="s">
+      <c r="J80" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K80" s="1"/>
@@ -4817,22 +5249,22 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -4851,22 +5283,22 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -4885,18 +5317,18 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4915,34 +5347,34 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22">
+      <c r="A84" s="20">
         <v>21</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>67</v>
+      <c r="B84" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H84" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I84" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K84" s="1"/>
@@ -4963,22 +5395,22 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -4997,22 +5429,22 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -5031,18 +5463,18 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -5061,16 +5493,36 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="A88" s="20">
+        <v>22</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -5089,16 +5541,22 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -5117,16 +5575,22 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -5145,16 +5609,22 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -5173,15 +5643,36 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="A92" s="20">
+        <v>23</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -5200,16 +5691,22 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -5228,16 +5725,22 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -5256,16 +5759,22 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -5284,16 +5793,36 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="A96" s="20">
+        <v>24</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -5312,16 +5841,22 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -5340,16 +5875,22 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -5368,16 +5909,22 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -5396,16 +5943,36 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="A100" s="20">
+        <v>25</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -5424,16 +5991,22 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -5452,16 +6025,22 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -5480,16 +6059,22 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -5508,16 +6093,36 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="A104" s="20">
+        <v>26</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -5536,16 +6141,22 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -5564,16 +6175,22 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -5592,16 +6209,18 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -5620,16 +6239,36 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="A108" s="20">
+        <v>27</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J108" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -5648,16 +6287,22 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -5675,17 +6320,23 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+    <row r="110" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -5704,16 +6355,22 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -5822,7 +6479,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="19"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -30624,7 +31281,7 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="197">
     <mergeCell ref="I80:I83"/>
     <mergeCell ref="J80:J83"/>
     <mergeCell ref="A84:A87"/>
@@ -30711,15 +31368,20 @@
     <mergeCell ref="H40:H43"/>
     <mergeCell ref="I40:I43"/>
     <mergeCell ref="J40:J43"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="H36:H39"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I32:I35"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
@@ -30736,12 +31398,9 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="J4:J7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="J12:J15"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="J16:J19"/>
@@ -30757,9 +31416,6 @@
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="D28:D31"/>
@@ -30771,425 +31427,590 @@
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D4:D7"/>
     <mergeCell ref="J32:J35"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="H32:H35"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="J104:J107"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
   </mergeCells>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="130" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="101" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="129" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="102" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="128" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="103" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="127" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="104" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="126" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="97" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="125" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="98" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="124" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="99" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="123" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="100" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="122" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="93" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="121" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="94" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="120" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="95" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="119" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="96" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="118" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="117" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="116" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="91" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="115" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="92" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="114" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="85" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="113" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="86" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="112" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="87" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="111" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="88" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="110" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="81" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="109" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="82" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="108" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="83" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="107" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="84" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="106" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="77" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="105" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="78" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="104" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="79" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="103" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="80" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="102" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="73" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="101" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="74" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="100" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="75" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="99" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="76" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="98" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="69" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="97" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="70" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="96" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="71" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="95" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="72" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="65" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="93" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="66" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="92" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="67" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="91" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="68" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="90" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="61" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="89" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="62" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="88" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="63" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="87" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="64" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="86" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="57" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="85" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="58" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="84" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="59" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="83" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="60" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="82" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="81" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="54" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="80" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="55" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="79" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="56" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="49" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="77" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="50" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="75" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="74" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="45" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="73" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="46" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="47" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="71" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="48" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="70" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="67" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="61" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="28" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="87" priority="23" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H92">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="79" priority="15" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="cellIs" dxfId="70" priority="8" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="H4 H8 H12 H16 H20 H24 H28 H32 H36 H40 H44 H48 H52 H56 H60 H64 H68 H72 H76 H80 H84">
+    <dataValidation type="list" allowBlank="1" sqref="H4 H8 H12 H16 H20 H24 H28 H32 H36 H40 H44 H48 H52 H56 H60 H64 H68 H72 H76 H80 H84 H88 H92 H96 H100 H104 H108">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J4 J8 J12 J16 J20 J24 J28 J32 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72 J76 J80 J84">
+    <dataValidation type="list" allowBlank="1" sqref="J4 J8 J12 J16 J20 J24 J28 J32 J36 J40 J44 J48 J52 J56 J60 J64 J68 J72 J76 J80 J84 J88 J92 J96 J100 J104 J108">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31198,10 +32019,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31230,146 +32051,146 @@
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>45527</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>45527</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>45527</v>
       </c>
       <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>45523</v>
       </c>
       <c r="B7" s="13">
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>45523</v>
       </c>
       <c r="B8" s="13">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>45523</v>
       </c>
       <c r="B9" s="13">
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>45523</v>
       </c>
       <c r="B10" s="13">
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>45523</v>
       </c>
       <c r="B11" s="13">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>45543</v>
       </c>
       <c r="B12" s="10">
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>23</v>
@@ -31377,14 +32198,14 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>45543</v>
       </c>
       <c r="B13" s="10">
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>23</v>
@@ -31392,14 +32213,14 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>45543</v>
       </c>
       <c r="B14" s="13">
         <v>15</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>23</v>
@@ -31407,14 +32228,14 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>45543</v>
       </c>
       <c r="B15" s="13">
         <v>16</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>23</v>
@@ -31422,14 +32243,14 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>45543</v>
       </c>
       <c r="B16" s="13">
         <v>17</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>23</v>
@@ -31437,14 +32258,14 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>45543</v>
       </c>
       <c r="B17" s="13">
         <v>18</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>23</v>
@@ -31452,14 +32273,14 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>45543</v>
       </c>
       <c r="B18" s="13">
         <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>23</v>
@@ -31467,14 +32288,14 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>45543</v>
       </c>
       <c r="B19" s="13">
         <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>23</v>
@@ -31482,148 +32303,313 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>45543</v>
       </c>
       <c r="B20" s="13">
         <v>21</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="12"/>
     </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B21" s="13">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B22" s="13">
+        <v>23</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B23" s="13">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B24" s="13">
+        <v>25</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B25" s="13">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>45548</v>
+      </c>
+      <c r="B26" s="13">
+        <v>27</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="62" priority="39" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="61" priority="40" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="60" priority="31" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="59" priority="32" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="56" priority="35" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="50" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
+  <conditionalFormatting sqref="C19">
     <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C20">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C26">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31666,168 +32652,168 @@
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>45527</v>
       </c>
       <c r="B4" s="10">
         <v>9</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>45527</v>
       </c>
       <c r="B5" s="10">
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>45527</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>45527</v>
       </c>
       <c r="B7" s="10">
         <v>12</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31848,21 +32834,21 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="20"/>
-    <col min="2" max="2" width="26.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="20"/>
-    <col min="6" max="6" width="43.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="66.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="12.5703125" style="20"/>
+    <col min="1" max="1" width="12.5703125" style="17"/>
+    <col min="2" max="2" width="26.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="17"/>
+    <col min="6" max="6" width="43.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -31894,30 +32880,30 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1"/>
@@ -31938,10 +32924,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
@@ -31951,9 +32937,9 @@
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -31972,35 +32958,35 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>62</v>
+      <c r="J4" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -32020,18 +33006,18 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -32050,18 +33036,18 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -32080,18 +33066,18 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -32110,34 +33096,34 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>41</v>
+      <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="1"/>
@@ -32158,22 +33144,22 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -32192,22 +33178,22 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -32226,22 +33212,22 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -32260,34 +33246,34 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>50</v>
+      <c r="D12" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="1"/>
@@ -32308,22 +33294,22 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -32342,22 +33328,22 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -32376,18 +33362,18 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -32406,34 +33392,34 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="1"/>
@@ -32453,49 +33439,49 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+    <row r="17" spans="1:26" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -32514,18 +33500,18 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -32547,25 +33533,25 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="25" t="s">
-        <v>76</v>
+      <c r="D20" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="1"/>
@@ -32589,19 +33575,19 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -32623,15 +33609,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -32653,15 +33639,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -60042,6 +61028,11 @@
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="J20:J23"/>
     <mergeCell ref="J8:J11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A4:A7"/>
@@ -60061,100 +61052,95 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="J16:J19"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="28" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H8">
-    <cfRule type="cellIs" dxfId="27" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="19" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
